--- a/PracticeData.xlsx
+++ b/PracticeData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="6975" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="6975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>activity</t>
   </si>
@@ -95,6 +97,27 @@
   <si>
     <t>February</t>
   </si>
+  <si>
+    <t>P(Singapore)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>sin*exp</t>
+  </si>
+  <si>
+    <t>sin+cos*exp</t>
+  </si>
+  <si>
+    <t>asin</t>
+  </si>
 </sst>
 </file>
 
@@ -150,6 +173,2753 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-CA"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P(Singapore)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.700000000000014</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.300000000000015</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.900000000000016</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.100000000000019</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.300000000000022</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.900000000000023</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.500000000000025</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.800000000000026</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.100000000000026</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20.400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20.700000000000028</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.300000000000029</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.60000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.900000000000031</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22.200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.500000000000032</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22.800000000000033</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.100000000000033</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.700000000000035</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24.000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.300000000000036</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.900000000000038</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25.200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.500000000000039</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25.80000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.100000000000041</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.400000000000041</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26.700000000000042</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.300000000000043</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.600000000000044</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.900000000000045</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.500000000000046</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>28.800000000000047</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29.100000000000048</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29.400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29.700000000000049</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30.00000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9955654174830928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98237931461817762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96078943915232318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93135840211135201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89483931681436979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85214378896621135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80430415606557226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75243215608930325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69767632607103103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64118038842995473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58404468844138302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52729242404304877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4718419924920747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41848630604256465</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36787944117144256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32053052101554136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27680432110155651</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2369277586821219</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20100119122573201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16901331540606623</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14085842092104517</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11635480280870403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5263255327810326E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.7304740443299824E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2176524022116486E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9566283504911879E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.91638950989871E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0670793026394083E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3806948722729038E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.831563888873422E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3966256466258153E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0555469566198794E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9070540515934207E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8707212757383997E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3202394740941008E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1511115984443894E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2780295447415444E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6322794952194908E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1592291739045413E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1598783507219608E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6929539489181114E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.936690406550758E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6981398582670568E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8328936133371609E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2340980408664937E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.2357218861739412E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4474504244672595E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5712849641655886E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3205735010578543E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4945338524752216E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.5401628731339727E-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0359471205639892E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7850765585156765E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3525751999819988E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4492788871223183E-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.8491187089090317E-7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3553478029932933E-7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2122914817023229E-7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9097732917305876E-7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1253517473441832E-7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.572557109674193E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.8046967798521791E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1829577923071497E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2413956862467046E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9970459426471621E-9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9089383951917966E-9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1644249725838449E-9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1878615868710085E-9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.4614313899369336E-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.4836244999780774E-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8615442520797387E-10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.8595021036373964E-11</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.1757931274210023E-11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.6930013774517647E-11</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3887890837338546E-11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.0986549971507884E-12</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.5963454436682696E-12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8057777495528171E-12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9872553843406422E-13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.4331205373282501E-13</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1671553440683056E-13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0502709812953981E-13</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.0404125317982107E-14</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.3980817331903381E-14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1324274851176597E-14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3290705182007514E-15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4424906541753444E-15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="51812224"/>
+        <c:axId val="51810688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51812224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51810688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51810688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51812224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-CA"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sin*exp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999833</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.3999999999999826</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4999999999999822</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.5999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.7999999999999812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8999999999999808</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9999999999999805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20462886666575342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39399369978439236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56038003140429771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69730922823277364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79978006507154731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86443881119747612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88967271073531473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87562521272933447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82413474355919736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73860206604870293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62379420120547013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48559538320197015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33071748172250315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16638368984821433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5328020529456624E-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.16117093618944045</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.31031952862601236</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.44136966477376283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.54921860712538939</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.62992726262704501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.68085414706790615</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.70072901261591702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.68966484341225653</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.64910963115796594</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.58174190375089707</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.49131628902607416</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.3824673605203977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.26048155869667533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.13104805542070577</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5009502076613738E-15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12694235713385943</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2444156084205632</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3476340520098874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.43257864115353467</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.49614684527715019</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53625816376454649</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55191211689054609</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54319769385840777</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51125537001676646</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45819482253845051</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38697329246708012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.30124108861759685</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20516194689091691</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10321680475541518</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.795847524652338E-16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.9983051632577938E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19250799298418875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.27380548270973015</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.34071001665738437</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.39077796228706813</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.42237066402922419</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.43470011842875506</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.42783641566127339</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.40267782332037688</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.36088597717887871</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.30479007602140984</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.23726519655963299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16159080382764007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-8.12961989379863E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-4.9738764531285223E-15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.8749212157932819E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.15162422564696604</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.21565621068610266</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.26835193513281569</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.30778673141402241</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33266995243510322</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34238094649306022</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33697491840530336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31715936673431694</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.28424303837135767</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.24006046993292143</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18687614547145423</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.12727305563904692</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.403096838180225E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.1852686876033257E-15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-6.2024896362280306E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.11942312340729729</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.1698563547640598</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.21136085694229109</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.24242071246826449</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.26201937463515823</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.26966800226601784</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.2654100760889001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.2498028400915486</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.22387709684417673</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.18907777437073339</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.147188438307221</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.10024351824487504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-5.0432430611410201E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-7.8089572498644077E-15</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.8852396910793412E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.4060710572473366E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.13378321524775566</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16647322414600552</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19093676184035652</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.20637317010947179</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.21239742512254256</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.20904377341458277</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.19675111462206077</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.17633133524943129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sin+cos*exp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999833</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.3999999999999826</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4999999999999822</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.5999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.7999999999999812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8999999999999808</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9999999999999805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.1353352832366127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32830630002334715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44484439212171023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43405542516025181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29600935830352337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7319132274627472E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14652285883584751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.29974039999939706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.33488293217400439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25053000398127534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.1341762026367596E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9545970777731475E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15903597181085982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13257719183717614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.2499399957802755E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.21581508339869027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.41418264823136119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.52776754752318933</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.50997954820495128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.36093399343932409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.12747769801325387</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11447242208446558</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28853150924762822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34647174955016624</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28595121459052536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15059710595609979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.244101060925229E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.6549125611487727E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2925972272099628E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14070478347503435</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35581891853734415</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55576881017196644</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66448471766718054</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63515726482800083</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46797662038016274</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2101751922543367</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.163018527723424E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.27005117264423401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.36557847926050419</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.34435091795594636</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.24829265189570288</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.14761469074247041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.11242311768439039</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.18434553849005142</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.35908590132653195</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.58664621951003149</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.78920492700022793</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.88989322415350558</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.84154042884210079</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.6444600762891548</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.34652031004322759</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.5491934538236977E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23958224859650756</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39708015094745175</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44063575109709735</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.40936537653899341</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.37047841241692436</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.39101124936421716</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50959127438675034</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.71913549544755595</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.96721610048199202</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1740760181646201</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2615290233942584</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1818087412665441</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.93543210397298138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.57131540589789165</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.16913202662649612</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.1893474854236698</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.44901762712032445</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.59938260354271078</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.67492940378799493</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.73791857080897916</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.85032542782935028</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.0458308373641536</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.3127569197818412</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.5946697582282869</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.8086211726449288</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.8742528705561345</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.742816345705962</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.4151638751940545</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.94193986198254787</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.40595450177773595</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.10652436285202177</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.53464804883301176</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.86111191582647184</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1127704642461982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.3437249756593657</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6076064837989612</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9299404110359328</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2914731888250857</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.6291659501332072</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.8548092660563191</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.88446371043714</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6677615161697581</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2061078506368856</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5529962861709989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.79640875393944088</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0027881037680393E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.67582874652972547</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.2926306001544079</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.8346483338095172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>asin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999833</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.3999999999999826</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4999999999999822</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.5999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.7999999999999812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8999999999999808</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9999999999999805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1001674211615598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20135792079033082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30469265401539758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41151684606748801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52359877559829893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64350110879328437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77539749661075308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92729521800161208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.119769514998634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1102230246251565E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10016742116155966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20135792079033077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30469265401539758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41151684606748817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52359877559829915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6435011087932847</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77539749661075363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92729521800161308</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1197695149986355</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4408920985006262E-16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10016742116156034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20135792079033143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.30469265401539825</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4115168460674889</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52359877559829993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64350110879328559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77539749661075463</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92729521800161419</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1197695149986371</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3322676295501878E-15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10016742116156122</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20135792079033232</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30469265401539919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41151684606748989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52359877559830093</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6435011087932867</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77539749661075585</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92729521800161563</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1197695149986391</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7763568394002505E-15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10016742116156122</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20135792079033188</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.30469265401539825</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4115168460674884</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52359877559829893</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.64350110879328393</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.77539749661075197</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92729521800161041</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1197695149986309</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.7763568394002505E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.10016742116155765</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.20135792079032827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.30469265401539453</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.41151684606748451</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.52359877559829482</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64350110879327949</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.77539749661074708</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92729521800160453</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1197695149986229</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5707962235566235</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10016742116155408</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20135792079032463</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.30469265401539081</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.41151684606748062</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.52359877559829071</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.64350110879327505</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.77539749661074209</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.92729521800159864</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1197695149986147</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5707961935148591</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.10016742116155052</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.20135792079032103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.30469265401538709</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41151684606747674</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.52359877559828649</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6435011087932706</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7753974966107372</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.92729521800159265</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1197695149986064</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5707961690958296</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.10016742116154695</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.20135792079031736</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.30469265401538337</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.41151684606747285</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.5235987755982825</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.64350110879326616</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.7753974966107321</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.92729521800158665</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1197695149985984</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5707961479809622</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.10016742116154337</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.20135792079031373</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.30469265401537965</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.41151684606746902</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52359877559827839</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.64350110879326172</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.77539749661072721</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.92729521800158088</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1197695149985902</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5707961291086541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="48573440"/>
+        <c:axId val="48571904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="48573440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48571904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="48571904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48573440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5479,7 +8249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
@@ -5598,4 +8368,2901 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="A1:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>1-WEIBULL(A2,$G$2,$G$3,$G$4)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>A2+0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">1-WEIBULL(A3,$G$2,$G$3,$G$4)</f>
+        <v>0.9955654174830928</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="1">A3+0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.98237931461817762</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.96078943915232318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.93135840211135201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.89483931681436979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.85214378896621135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.80430415606557226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.75243215608930325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.69767632607103103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.64118038842995473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999994</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.58404468844138302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999992</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.52729242404304877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>3.899999999999999</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.4718419924920747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.41848630604256465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999991</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.36787944117144256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.32053052101554136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999988</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.27680432110155651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.2369277586821219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999984</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.20100119122573201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.16901331540606623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>6.299999999999998</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.14085842092104517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.11635480280870403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999977</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>9.5263255327810326E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999975</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>7.7304740443299824E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999973</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>6.2176524022116486E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4.9566283504911879E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999979</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>3.91638950989871E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>3.0670793026394083E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.3806948722729038E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.831563888873422E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.3966256466258153E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.0555469566198794E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>9.9000000000000021</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>7.9070540515934207E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>5.8707212757383997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>10.500000000000004</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>4.3202394740941008E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>10.800000000000004</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>3.1511115984443894E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>11.100000000000005</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.2780295447415444E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.6322794952194908E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>11.700000000000006</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.1592291739045413E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>12.000000000000007</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>8.1598783507219608E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>12.300000000000008</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>5.6929539489181114E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>12.600000000000009</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>3.936690406550758E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>12.900000000000009</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.6981398582670568E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>13.20000000000001</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.8328936133371609E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>13.500000000000011</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.2340980408664937E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>13.800000000000011</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>8.2357218861739412E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>14.100000000000012</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>5.4474504244672595E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>14.400000000000013</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>3.5712849641655886E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>14.700000000000014</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2.3205735010578543E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>15.000000000000014</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1.4945338524752216E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>15.300000000000015</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>9.5401628731339727E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>15.600000000000016</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>6.0359471205639892E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>15.900000000000016</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>3.7850765585156765E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>16.200000000000017</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.3525751999819988E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>16.500000000000018</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.4492788871223183E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>16.800000000000018</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>8.8491187089090317E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>17.100000000000019</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5.3553478029932933E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>17.40000000000002</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3.2122914817023229E-7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>17.700000000000021</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1.9097732917305876E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>18.000000000000021</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1.1253517473441832E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>18.300000000000022</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>6.572557109674193E-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>3.8046967798521791E-8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>18.900000000000023</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>2.1829577923071497E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>19.200000000000024</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1.2413956862467046E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>19.500000000000025</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="2">1-WEIBULL(A67,$G$2,$G$3,$G$4)</f>
+        <v>6.9970459426471621E-9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f t="shared" ref="A68:A102" si="3">A67+0.3</f>
+        <v>19.800000000000026</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>3.9089383951917966E-9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>20.100000000000026</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>2.1644249725838449E-9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>20.400000000000027</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>1.1878615868710085E-9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>20.700000000000028</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>6.4614313899369336E-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>21.000000000000028</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>3.4836244999780774E-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>21.300000000000029</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>1.8615442520797387E-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>21.60000000000003</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>9.8595021036373964E-11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>21.900000000000031</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>5.1757931274210023E-11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>22.200000000000031</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>2.6930013774517647E-11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>22.500000000000032</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1.3887890837338546E-11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>22.800000000000033</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>7.0986549971507884E-12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>23.100000000000033</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>3.5963454436682696E-12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>23.400000000000034</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1.8057777495528171E-12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>23.700000000000035</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>8.9872553843406422E-13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>24.000000000000036</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>4.4331205373282501E-13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>24.300000000000036</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>2.1671553440683056E-13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>24.600000000000037</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1.0502709812953981E-13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>24.900000000000038</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>5.0404125317982107E-14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>25.200000000000038</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>2.3980817331903381E-14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>25.500000000000039</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>25.80000000000004</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>26.100000000000041</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>2.4424906541753444E-15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>26.400000000000041</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>26.700000000000042</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>27.000000000000043</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>27.300000000000043</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>27.600000000000044</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>27.900000000000045</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>28.200000000000045</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>28.500000000000046</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>28.800000000000047</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>29.100000000000048</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>29.400000000000048</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>29.700000000000049</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>30.00000000000005</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:D102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>SIN(A2*2*PI()/3)*EXP(-A2/(2*PI()))</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>1/3*SIN(A2*2*PI()/1)+COS(2*PI()/3*A2)*EXP(-(6-A1)/3)</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="D2">
+        <f>ASIN(MOD(A2,A11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <f>A2+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">SIN(A3*2*PI()/3)*EXP(-A3/(2*PI()))</f>
+        <v>0.20462886666575342</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">1/3*SIN(A3*2*PI()/1)+COS(2*PI()/3*A3)*EXP(-(6-A2)/3)</f>
+        <v>0.32830630002334715</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">ASIN(MOD(A3,1))</f>
+        <v>0.1001674211615598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="3">A3+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.39399369978439236</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.44484439212171023</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0.20135792079033082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.56038003140429771</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.43405542516025181</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.69730922823277364</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.29600935830352337</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.41151684606748801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.79978006507154731</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>7.7319132274627472E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.86443881119747612</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-0.14652285883584751</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.64350110879328437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.88967271073531473</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-0.29974039999939706</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.77539749661075308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.87562521272933447</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-0.33488293217400439</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.92729521800161208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.82413474355919736</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-0.25053000398127534</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1.119769514998634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.73860206604870293</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-9.1341762026367596E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.62379420120547013</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>6.9545970777731475E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.10016742116155966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.48559538320197015</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.15903597181085982</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.20135792079033077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.33071748172250315</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.13257719183717614</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.16638368984821433</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-8.2499399957802755E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.41151684606748817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>-2.5328020529456624E-16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-0.21581508339869027</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>-0.16117093618944045</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-0.41418264823136119</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.6435011087932847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-0.31031952862601236</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-0.52776754752318933</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.77539749661075363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>-0.44136966477376283</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-0.50997954820495128</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.92729521800161308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>-0.54921860712538939</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-0.36093399343932409</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1.1197695149986355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>-0.62992726262704501</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-0.12747769801325387</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>-0.68085414706790615</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.11447242208446558</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.10016742116156034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>-0.70072901261591702</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.28853150924762822</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.20135792079033143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>-0.68966484341225653</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.34647174955016624</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-0.64910963115796594</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.28595121459052536</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.4115168460674889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>-0.58174190375089707</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.15059710595609979</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>-0.49131628902607416</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1.244101060925229E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.64350110879328559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>-0.3824673605203977</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-5.6549125611487727E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.77539749661075463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>-0.26048155869667533</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-1.2925972272099628E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.92729521800161419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>-0.13104805542070577</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.14070478347503435</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>1.1197695149986371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.5009502076613738E-15</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.35581891853734415</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>1.3322676295501878E-15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.12694235713385943</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.55576881017196644</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.10016742116156122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.2444156084205632</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.66448471766718054</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.20135792079033232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.3476340520098874</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.63515726482800083</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.43257864115353467</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.46797662038016274</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.41151684606748989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.49614684527715019</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.2101751922543367</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.52359877559830093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.53625816376454649</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>-6.163018527723424E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.6435011087932867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.55191211689054609</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>-0.27005117264423401</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.77539749661075585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.54319769385840777</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>-0.36557847926050419</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0.92729521800161563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.51125537001676646</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>-0.34435091795594636</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>1.1197695149986391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.45819482253845051</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>-0.24829265189570288</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.38697329246708012</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>-0.14761469074247041</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0.10016742116156122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.30124108861759685</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>-0.11242311768439039</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0.20135792079033188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.20516194689091691</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>-0.18434553849005142</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.10321680475541518</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>-0.35908590132653195</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0.4115168460674884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.795847524652338E-16</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>-0.58664621951003149</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829893</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>-9.9983051632577938E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>-0.78920492700022793</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0.64350110879328393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>-0.19250799298418875</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>-0.88989322415350558</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>0.77539749661075197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>-0.27380548270973015</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>-0.84154042884210079</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0.92729521800161041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>-0.34071001665738437</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>-0.6444600762891548</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>1.1197695149986309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>-0.39077796228706813</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>-0.34652031004322759</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>-0.42237066402922419</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>-2.5491934538236977E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0.10016742116155765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>-0.43470011842875506</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.23958224859650756</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>0.20135792079032827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>-0.42783641566127339</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.39708015094745175</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>-0.40267782332037688</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.44063575109709735</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0.41151684606748451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>-0.36088597717887871</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.40936537653899341</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>-0.30479007602140984</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.37047841241692436</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0.64350110879327949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>-0.23726519655963299</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.39101124936421716</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0.77539749661074708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>-0.16159080382764007</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.50959127438675034</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0.92729521800160453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>-8.12961989379863E-2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.71913549544755595</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>1.1197695149986229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>-4.9738764531285223E-15</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.96721610048199202</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>1.5707962235566235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>7.8749212157932819E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>1.1740760181646201</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0.10016742116155408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.15162422564696604</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>1.2615290233942584</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0.20135792079032463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.21565621068610266</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>1.1818087412665441</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0.30469265401539081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.26835193513281569</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.93543210397298138</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0.41151684606748062</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="4">SIN(A67*2*PI()/3)*EXP(-A67/(2*PI()))</f>
+        <v>0.30778673141402241</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C102" si="5">1/3*SIN(A67*2*PI()/1)+COS(2*PI()/3*A67)*EXP(-(6-A66)/3)</f>
+        <v>0.57131540589789165</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="6">ASIN(MOD(A67,1))</f>
+        <v>0.52359877559829071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <f t="shared" ref="A68:A102" si="7">A67+0.1</f>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>0.33266995243510322</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>0.16913202662649612</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>0.64350110879327505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>0.34238094649306022</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>-0.1893474854236698</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>0.77539749661074209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>0.33697491840530336</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>-0.44901762712032445</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>0.92729521800159864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>0.31715936673431694</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>-0.59938260354271078</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>1.1197695149986147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>0.28424303837135767</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>-0.67492940378799493</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>1.5707961935148591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>0.24006046993292143</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>-0.73791857080897916</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>0.10016742116155052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>0.18687614547145423</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>-0.85032542782935028</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>0.20135792079032103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>0.12727305563904692</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>-1.0458308373641536</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>0.30469265401538709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>6.403096838180225E-2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>-1.3127569197818412</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>0.41151684606747674</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999893</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>7.1852686876033257E-15</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>-1.5946697582282869</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>0.52359877559828649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>7.599999999999989</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>-6.2024896362280306E-2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>-1.8086211726449288</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>0.6435011087932706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <f t="shared" si="7"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>-0.11942312340729729</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>-1.8742528705561345</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>0.7753974966107372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <f t="shared" si="7"/>
+        <v>7.7999999999999883</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>-0.1698563547640598</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>-1.742816345705962</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>0.92729521800159265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <f t="shared" si="7"/>
+        <v>7.8999999999999879</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>-0.21136085694229109</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>-1.4151638751940545</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>1.1197695149986064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <f t="shared" si="7"/>
+        <v>7.9999999999999876</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>-0.24242071246826449</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>-0.94193986198254787</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>1.5707961690958296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <f t="shared" si="7"/>
+        <v>8.0999999999999872</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>-0.26201937463515823</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>-0.40595450177773595</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>0.10016742116154695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999869</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>-0.26966800226601784</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>0.10652436285202177</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>0.20135792079031736</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <f t="shared" si="7"/>
+        <v>8.2999999999999865</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>-0.2654100760889001</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>0.53464804883301176</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>0.30469265401538337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <f t="shared" si="7"/>
+        <v>8.3999999999999861</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>-0.2498028400915486</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>0.86111191582647184</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>0.41151684606747285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <f t="shared" si="7"/>
+        <v>8.4999999999999858</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>-0.22387709684417673</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>1.1127704642461982</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>0.5235987755982825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <f t="shared" si="7"/>
+        <v>8.5999999999999854</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>-0.18907777437073339</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>1.3437249756593657</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>0.64350110879326616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999851</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>-0.147188438307221</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>1.6076064837989612</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>0.7753974966107321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <f t="shared" si="7"/>
+        <v>8.7999999999999847</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>-0.10024351824487504</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>1.9299404110359328</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>0.92729521800158665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <f t="shared" si="7"/>
+        <v>8.8999999999999844</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>-5.0432430611410201E-2</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>2.2914731888250857</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>1.1197695149985984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <f t="shared" si="7"/>
+        <v>8.999999999999984</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>-7.8089572498644077E-15</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>2.6291659501332072</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>1.5707961479809622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <f t="shared" si="7"/>
+        <v>9.0999999999999837</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>4.8852396910793412E-2</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>2.8548092660563191</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>0.10016742116154337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <f t="shared" si="7"/>
+        <v>9.1999999999999833</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>9.4060710572473366E-2</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>2.88446371043714</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>0.20135792079031373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <f t="shared" si="7"/>
+        <v>9.2999999999999829</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>0.13378321524775566</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>2.6677615161697581</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>0.30469265401537965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <f t="shared" si="7"/>
+        <v>9.3999999999999826</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="4"/>
+        <v>0.16647322414600552</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>2.2061078506368856</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>0.41151684606746902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <f t="shared" si="7"/>
+        <v>9.4999999999999822</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>0.19093676184035652</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>1.5529962861709989</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>0.52359877559827839</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>9.5999999999999819</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>0.20637317010947179</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>0.79640875393944088</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>0.64350110879326172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>9.6999999999999815</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>0.21239742512254256</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>3.0027881037680393E-2</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>0.77539749661072721</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>9.7999999999999812</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>0.20904377341458277</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>-0.67582874652972547</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>0.92729521800158088</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>9.8999999999999808</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>0.19675111462206077</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>-1.2926306001544079</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>1.1197695149985902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999805</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>0.17633133524943129</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>-1.8346483338095172</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>1.5707961291086541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PracticeData.xlsx
+++ b/PracticeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="6975" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="6975" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>activity</t>
   </si>
@@ -118,6 +119,177 @@
   <si>
     <t>asin</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>HydroElectric</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
 </sst>
 </file>
 
@@ -829,23 +1001,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="51812224"/>
-        <c:axId val="51810688"/>
+        <c:axId val="56955648"/>
+        <c:axId val="56957184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51812224"/>
+        <c:axId val="56955648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51810688"/>
+        <c:crossAx val="56957184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51810688"/>
+        <c:axId val="56957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +1025,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51812224"/>
+        <c:crossAx val="56955648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -866,7 +1038,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2809,23 +2981,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="48573440"/>
-        <c:axId val="48571904"/>
+        <c:axId val="57737600"/>
+        <c:axId val="57739136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48573440"/>
+        <c:axId val="57737600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48571904"/>
+        <c:crossAx val="57739136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48571904"/>
+        <c:axId val="57739136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,20 +3005,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48573440"/>
+        <c:crossAx val="57737600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8374,7 +8545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
@@ -11265,4 +11436,1059 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3.3777141575979162</v>
+      </c>
+      <c r="D2">
+        <v>3.5044754497007746</v>
+      </c>
+      <c r="E2">
+        <v>92.08906058672369</v>
+      </c>
+      <c r="F2">
+        <v>1.0287498059776141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.0539485667201527</v>
+      </c>
+      <c r="D3">
+        <v>3.7269612732555619</v>
+      </c>
+      <c r="E3">
+        <v>90.910273645864962</v>
+      </c>
+      <c r="F3">
+        <v>1.3088165141593304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.0989206221507102</v>
+      </c>
+      <c r="D4">
+        <v>3.6814494502547599</v>
+      </c>
+      <c r="E4">
+        <v>87.968456690801816</v>
+      </c>
+      <c r="F4">
+        <v>1.2511732367927058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>7.4712597507973363E-2</v>
+      </c>
+      <c r="C5">
+        <v>10.916876210062904</v>
+      </c>
+      <c r="D5">
+        <v>3.5460366172063917</v>
+      </c>
+      <c r="E5">
+        <v>84.178603276107239</v>
+      </c>
+      <c r="F5">
+        <v>1.2837712991154993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0.10981818181818183</v>
+      </c>
+      <c r="C6">
+        <v>11.893090909090908</v>
+      </c>
+      <c r="D6">
+        <v>3.1709090909090909</v>
+      </c>
+      <c r="E6">
+        <v>83.157818181818172</v>
+      </c>
+      <c r="F6">
+        <v>1.6683636363636363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>8.6954749563527917E-2</v>
+      </c>
+      <c r="C7">
+        <v>13.424998131831552</v>
+      </c>
+      <c r="D7">
+        <v>4.0658138760758948</v>
+      </c>
+      <c r="E7">
+        <v>80.221191144202223</v>
+      </c>
+      <c r="F7">
+        <v>2.2010420983268006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0.10664550290795005</v>
+      </c>
+      <c r="C8">
+        <v>12.35289740950633</v>
+      </c>
+      <c r="D8">
+        <v>4.0736101982862314</v>
+      </c>
+      <c r="E8">
+        <v>81.224191168264284</v>
+      </c>
+      <c r="F8">
+        <v>2.2426557210352054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>9.0477401347107966E-2</v>
+      </c>
+      <c r="C9">
+        <v>13.559783090778993</v>
+      </c>
+      <c r="D9">
+        <v>3.9348799252526567</v>
+      </c>
+      <c r="E9">
+        <v>79.196702601373119</v>
+      </c>
+      <c r="F9">
+        <v>3.2181569812481152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0.50857880478440798</v>
+      </c>
+      <c r="C10">
+        <v>15.10833614953768</v>
+      </c>
+      <c r="D10">
+        <v>4.2508988770269749</v>
+      </c>
+      <c r="E10">
+        <v>75.455809598732429</v>
+      </c>
+      <c r="F10">
+        <v>4.6763765699185056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>0.27069346651383658</v>
+      </c>
+      <c r="C11">
+        <v>15.07849598821025</v>
+      </c>
+      <c r="D11">
+        <v>3.0410799083019486</v>
+      </c>
+      <c r="E11">
+        <v>77.082651056165048</v>
+      </c>
+      <c r="F11">
+        <v>4.5270795808089082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>0.49495971591126042</v>
+      </c>
+      <c r="C12">
+        <v>17.926419489098478</v>
+      </c>
+      <c r="D12">
+        <v>3.0408759402802703</v>
+      </c>
+      <c r="E12">
+        <v>75.478731528504341</v>
+      </c>
+      <c r="F12">
+        <v>3.0590133262056591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>1.9235190436048737</v>
+      </c>
+      <c r="C13">
+        <v>18.801080091780754</v>
+      </c>
+      <c r="D13">
+        <v>3.1447079559849072</v>
+      </c>
+      <c r="E13">
+        <v>73.235722367727078</v>
+      </c>
+      <c r="F13">
+        <v>2.8949705409023903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>2.9297882800342911</v>
+      </c>
+      <c r="C14">
+        <v>17.154152124716102</v>
+      </c>
+      <c r="D14">
+        <v>3.7358761939974077</v>
+      </c>
+      <c r="E14">
+        <v>73.798892441706926</v>
+      </c>
+      <c r="F14">
+        <v>2.3812909595452751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>5.6479352490549131</v>
+      </c>
+      <c r="C15">
+        <v>12.924270866888083</v>
+      </c>
+      <c r="D15">
+        <v>5.9978302805454655</v>
+      </c>
+      <c r="E15">
+        <v>72.072452338372557</v>
+      </c>
+      <c r="F15">
+        <v>3.3575112651389767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>5.1834999911821242</v>
+      </c>
+      <c r="C16">
+        <v>12.271308396381144</v>
+      </c>
+      <c r="D16">
+        <v>4.6117489374459906</v>
+      </c>
+      <c r="E16">
+        <v>74.305415939191931</v>
+      </c>
+      <c r="F16">
+        <v>3.6280267357988114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>4.5365959289735818</v>
+      </c>
+      <c r="C17">
+        <v>13.110653962754441</v>
+      </c>
+      <c r="D17">
+        <v>5.5965786054569078</v>
+      </c>
+      <c r="E17">
+        <v>73.072758770030319</v>
+      </c>
+      <c r="F17">
+        <v>3.6834127327847557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>5.8399839045000341</v>
+      </c>
+      <c r="C18">
+        <v>13.723760981825498</v>
+      </c>
+      <c r="D18">
+        <v>4.4624773657031724</v>
+      </c>
+      <c r="E18">
+        <v>71.319495674334391</v>
+      </c>
+      <c r="F18">
+        <v>4.4172087720474815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>8.1800848378702344</v>
+      </c>
+      <c r="C19">
+        <v>15.002515324849547</v>
+      </c>
+      <c r="D19">
+        <v>3.8444100786892985</v>
+      </c>
+      <c r="E19">
+        <v>68.363113537416226</v>
+      </c>
+      <c r="F19">
+        <v>4.2779154478209831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>9.099260149253297</v>
+      </c>
+      <c r="C20">
+        <v>14.555550047097318</v>
+      </c>
+      <c r="D20">
+        <v>2.9281991910343037</v>
+      </c>
+      <c r="E20">
+        <v>68.605773577092336</v>
+      </c>
+      <c r="F20">
+        <v>4.4810983736115046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>9.8217816267995879</v>
+      </c>
+      <c r="C21">
+        <v>14.674890702013311</v>
+      </c>
+      <c r="D21">
+        <v>3.0475341817270474</v>
+      </c>
+      <c r="E21">
+        <v>67.979449193840324</v>
+      </c>
+      <c r="F21">
+        <v>4.1018072456907353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>10.188652961063873</v>
+      </c>
+      <c r="C22">
+        <v>16.022374744828252</v>
+      </c>
+      <c r="D22">
+        <v>2.4625078359828332</v>
+      </c>
+      <c r="E22">
+        <v>67.281757831964384</v>
+      </c>
+      <c r="F22">
+        <v>3.6964407224642226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>10.261486451877273</v>
+      </c>
+      <c r="C23">
+        <v>16.255954515187216</v>
+      </c>
+      <c r="D23">
+        <v>2.2204579214260103</v>
+      </c>
+      <c r="E23">
+        <v>68.128617528043847</v>
+      </c>
+      <c r="F23">
+        <v>2.6473902576448292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>9.8972760998479394</v>
+      </c>
+      <c r="C24">
+        <v>17.861928131994663</v>
+      </c>
+      <c r="D24">
+        <v>2.3314891738458083</v>
+      </c>
+      <c r="E24">
+        <v>66.553676400352131</v>
+      </c>
+      <c r="F24">
+        <v>2.8034150081709259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>11.91918201211289</v>
+      </c>
+      <c r="C25">
+        <v>18.08596719221244</v>
+      </c>
+      <c r="D25">
+        <v>2.1562906112841134</v>
+      </c>
+      <c r="E25">
+        <v>65.21148517764756</v>
+      </c>
+      <c r="F25">
+        <v>2.1158325772993649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>11.947095032150294</v>
+      </c>
+      <c r="C26">
+        <v>19.214663280016474</v>
+      </c>
+      <c r="D26">
+        <v>1.4004256195510401</v>
+      </c>
+      <c r="E26">
+        <v>65.472872474314087</v>
+      </c>
+      <c r="F26">
+        <v>1.4301732225807191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>13.187988930291342</v>
+      </c>
+      <c r="C27">
+        <v>17.318428450022878</v>
+      </c>
+      <c r="D27">
+        <v>1.4835152862216994</v>
+      </c>
+      <c r="E27">
+        <v>66.166568608223827</v>
+      </c>
+      <c r="F27">
+        <v>1.4767601490488331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>15.212389002732241</v>
+      </c>
+      <c r="C28">
+        <v>15.295210040983607</v>
+      </c>
+      <c r="D28">
+        <v>1.4698599726775956</v>
+      </c>
+      <c r="E28">
+        <v>66.306992827868854</v>
+      </c>
+      <c r="F28">
+        <v>1.3161714480874318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>15.568967254408062</v>
+      </c>
+      <c r="C29">
+        <v>16.976322418136018</v>
+      </c>
+      <c r="D29">
+        <v>1.2411083123425692</v>
+      </c>
+      <c r="E29">
+        <v>63.719093198992439</v>
+      </c>
+      <c r="F29">
+        <v>2.0274055415617132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>16.38205756761031</v>
+      </c>
+      <c r="C30">
+        <v>18.142693341768148</v>
+      </c>
+      <c r="D30">
+        <v>1.8646212241024831</v>
+      </c>
+      <c r="E30">
+        <v>60.777123201012174</v>
+      </c>
+      <c r="F30">
+        <v>2.3410564605408823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>15.991286798859598</v>
+      </c>
+      <c r="C31">
+        <v>18.370999775763206</v>
+      </c>
+      <c r="D31">
+        <v>2.9701364641060959</v>
+      </c>
+      <c r="E31">
+        <v>58.331598167665057</v>
+      </c>
+      <c r="F31">
+        <v>3.6386424063811389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>15.137094147593256</v>
+      </c>
+      <c r="C32">
+        <v>17.056640410255557</v>
+      </c>
+      <c r="D32">
+        <v>2.0027342072562293</v>
+      </c>
+      <c r="E32">
+        <v>61.558456645803986</v>
+      </c>
+      <c r="F32">
+        <v>3.4163069116527431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>16.703345979337648</v>
+      </c>
+      <c r="C33">
+        <v>17.402514647141079</v>
+      </c>
+      <c r="D33">
+        <v>1.6957052753308512</v>
+      </c>
+      <c r="E33">
+        <v>60.626872070817626</v>
+      </c>
+      <c r="F33">
+        <v>2.7799575582001372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>15.488228431283984</v>
+      </c>
+      <c r="C34">
+        <v>17.304177181858197</v>
+      </c>
+      <c r="D34">
+        <v>2.5221083303381455</v>
+      </c>
+      <c r="E34">
+        <v>60.809296550504634</v>
+      </c>
+      <c r="F34">
+        <v>2.9972380203698403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>17.653448395747549</v>
+      </c>
+      <c r="C35">
+        <v>15.482309341742512</v>
+      </c>
+      <c r="D35">
+        <v>2.8751195695683469</v>
+      </c>
+      <c r="E35">
+        <v>60.805424370956004</v>
+      </c>
+      <c r="F35">
+        <v>2.2566465645713256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>19.406017567886149</v>
+      </c>
+      <c r="C36">
+        <v>15.593883453038027</v>
+      </c>
+      <c r="D36">
+        <v>2.7780727154279585</v>
+      </c>
+      <c r="E36">
+        <v>59.357571809319509</v>
+      </c>
+      <c r="F36">
+        <v>1.6945217780961104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>17.471986857260202</v>
+      </c>
+      <c r="C37">
+        <v>15.607539218399836</v>
+      </c>
+      <c r="D37">
+        <v>3.7838947866536903</v>
+      </c>
+      <c r="E37">
+        <v>59.985714413264169</v>
+      </c>
+      <c r="F37">
+        <v>1.6421281952839706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>16.191709618469304</v>
+      </c>
+      <c r="C38">
+        <v>15.707356408909307</v>
+      </c>
+      <c r="D38">
+        <v>3.2056328096500617</v>
+      </c>
+      <c r="E38">
+        <v>62.075230962300743</v>
+      </c>
+      <c r="F38">
+        <v>1.2549548024275259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>14.387726638772664</v>
+      </c>
+      <c r="C39">
+        <v>17.330369595536961</v>
+      </c>
+      <c r="D39">
+        <v>3.6267433751743376</v>
+      </c>
+      <c r="E39">
+        <v>61.139818688981876</v>
+      </c>
+      <c r="F39">
+        <v>1.6361576011157601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>12.732329266143088</v>
+      </c>
+      <c r="C40">
+        <v>19.034663998333478</v>
+      </c>
+      <c r="D40">
+        <v>4.6098185877656679</v>
+      </c>
+      <c r="E40">
+        <v>59.092066397340695</v>
+      </c>
+      <c r="F40">
+        <v>2.5606740152657621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>12.693951929803349</v>
+      </c>
+      <c r="C41">
+        <v>18.640630802580556</v>
+      </c>
+      <c r="D41">
+        <v>4.7348193697156029</v>
+      </c>
+      <c r="E41">
+        <v>59.722944321135863</v>
+      </c>
+      <c r="F41">
+        <v>2.0970903971879884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <v>12.021050337188488</v>
+      </c>
+      <c r="C42">
+        <v>19.41690499937252</v>
+      </c>
+      <c r="D42">
+        <v>5.5271170879596303</v>
+      </c>
+      <c r="E42">
+        <v>59.199367234922292</v>
+      </c>
+      <c r="F42">
+        <v>1.829767699918758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
+        <v>13.004001492081793</v>
+      </c>
+      <c r="C43">
+        <v>19.988978941300147</v>
+      </c>
+      <c r="D43">
+        <v>6.1007494319915905</v>
+      </c>
+      <c r="E43">
+        <v>56.515819458103024</v>
+      </c>
+      <c r="F43">
+        <v>2.8644579334667166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>12.56341926748043</v>
+      </c>
+      <c r="C44">
+        <v>19.601668779256034</v>
+      </c>
+      <c r="D44">
+        <v>5.6283040398697182</v>
+      </c>
+      <c r="E44">
+        <v>58.313122340549405</v>
+      </c>
+      <c r="F44">
+        <v>2.3112060390113749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>12.703420621431553</v>
+      </c>
+      <c r="C45">
+        <v>19.105000152660878</v>
+      </c>
+      <c r="D45">
+        <v>5.6060467277988675</v>
+      </c>
+      <c r="E45">
+        <v>57.238500395222061</v>
+      </c>
+      <c r="F45">
+        <v>3.6608078813723197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>15.067890275311946</v>
+      </c>
+      <c r="C46">
+        <v>16.879797954539772</v>
+      </c>
+      <c r="D46">
+        <v>5.7276220482941991</v>
+      </c>
+      <c r="E46">
+        <v>56.818617522275851</v>
+      </c>
+      <c r="F46">
+        <v>3.8693706083868871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47">
+        <v>14.702100368510926</v>
+      </c>
+      <c r="C47">
+        <v>17.568402943614796</v>
+      </c>
+      <c r="D47">
+        <v>5.4870909361008131</v>
+      </c>
+      <c r="E47">
+        <v>58.083998766838171</v>
+      </c>
+      <c r="F47">
+        <v>2.4490721735116199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48">
+        <v>15.906965264607312</v>
+      </c>
+      <c r="C48">
+        <v>17.560436205866306</v>
+      </c>
+      <c r="D48">
+        <v>5.5014483905328513</v>
+      </c>
+      <c r="E48">
+        <v>57.699202410953212</v>
+      </c>
+      <c r="F48">
+        <v>1.5019744875425425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49">
+        <v>14.562820974125806</v>
+      </c>
+      <c r="C49">
+        <v>18.025953634864038</v>
+      </c>
+      <c r="D49">
+        <v>6.3396527365648421</v>
+      </c>
+      <c r="E49">
+        <v>57.741307899954982</v>
+      </c>
+      <c r="F49">
+        <v>1.5335105943852796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50">
+        <v>14.658314350797266</v>
+      </c>
+      <c r="C50">
+        <v>17.477454987986395</v>
+      </c>
+      <c r="D50">
+        <v>6.3831247854713391</v>
+      </c>
+      <c r="E50">
+        <v>58.397977969856775</v>
+      </c>
+      <c r="F50">
+        <v>1.3803164102724124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51">
+        <v>14.991801009081065</v>
+      </c>
+      <c r="C51">
+        <v>15.194578883577645</v>
+      </c>
+      <c r="D51">
+        <v>6.216808180089302</v>
+      </c>
+      <c r="E51">
+        <v>60.327495386513199</v>
+      </c>
+      <c r="F51">
+        <v>1.3760045629166853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52">
+        <v>15.10620649981772</v>
+      </c>
+      <c r="C52">
+        <v>15.815922111888908</v>
+      </c>
+      <c r="D52">
+        <v>6.6590187730147532</v>
+      </c>
+      <c r="E52">
+        <v>58.780138665453705</v>
+      </c>
+      <c r="F52">
+        <v>1.4736130946209443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PracticeData.xlsx
+++ b/PracticeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="6975" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="6975" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -295,6 +296,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\-yy;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -331,13 +335,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +354,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1001,23 +1006,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="56955648"/>
-        <c:axId val="56957184"/>
+        <c:axId val="59959936"/>
+        <c:axId val="83825024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56955648"/>
+        <c:axId val="59959936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56957184"/>
+        <c:crossAx val="83825024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56957184"/>
+        <c:axId val="83825024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1030,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56955648"/>
+        <c:crossAx val="59959936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1038,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1046,7 +1051,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2981,23 +2986,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57737600"/>
-        <c:axId val="57739136"/>
+        <c:axId val="83872000"/>
+        <c:axId val="85864448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57737600"/>
+        <c:axId val="83872000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57739136"/>
+        <c:crossAx val="85864448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57739136"/>
+        <c:axId val="85864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3010,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57737600"/>
+        <c:crossAx val="83872000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3017,7 +3022,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8421,7 +8426,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11442,7 +11447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F52"/>
     </sheetView>
   </sheetViews>
@@ -12491,4 +12496,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6">
+        <v>36951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6">
+        <v>36982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6">
+        <v>37012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>